--- a/Assets/Diagrams.xlsx
+++ b/Assets/Diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Water-Immersed-Objects_Simulation\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA6D1C-FE4B-435A-991F-FAD91CB69ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614F2E8B-3855-465B-BF16-EC19C1C4CBBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5D0E662E-CD21-4431-85A6-AAC3C4C83AC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{5D0E662E-CD21-4431-85A6-AAC3C4C83AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="No Waves" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>MSE</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Mean Square Error (MSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ¤¤¤</t>
   </si>
 </sst>
 </file>
@@ -213,6 +216,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -223,37 +259,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.2203615000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.6027060000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1852162000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.2605176999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.46255815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.0689640000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.23045019999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.0116220000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.1044120000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.841699E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8.4849289999999987E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,6 +586,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -560,37 +629,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1927.499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1943.9165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1946.204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1929.4745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1923.4085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1890.4780000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1881.7235000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1862.5445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1744.8025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>69.197540000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0357064999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,37 +711,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.0652689999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.8921994999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.8414955000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9762325000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.1221960000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.0990389999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.1404125000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.410879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.4309374999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.6226624999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.5823875000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +844,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -833,7 +902,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -999,6 +1068,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1009,37 +1111,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>29.057110000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.8547349999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.4482460000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2996944999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.804775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.83477279999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.53417804999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.3264525000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.2786834999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.2731694999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.4687735000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,6 +1438,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1346,37 +1481,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1486.4645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1580.8905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1450.299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1563.432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1599.6165000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1581.3975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1579.5005000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1564.278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1393.1925000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>66.510764999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0134429999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,37 +1563,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7140580000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7732190000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.704577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6966165000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.7320980000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7909329999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.869513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2208925000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.0654525000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.5023355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.2993829999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,7 +1696,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1620,7 +1755,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1776,6 +1911,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1786,37 +1954,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.75543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.136001499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16.082862499999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12.7065985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.8725540000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20479069999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.26417379000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.4623849999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.8421264999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.819778E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.6265669999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,6 +2275,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2117,37 +2318,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1866.2514999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1897.8330000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1923.4075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1934.0645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1910.307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1890.2314999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1857.2004999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1762.8515000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1669.133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>78.717505000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0146119999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2199,37 +2400,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.60568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6086360000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5993754999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6334960000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.6555070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7357285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7947285000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.1555849999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.1384550000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.665699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.2697849999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2533,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2391,7 +2592,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2556,6 +2757,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2566,37 +2800,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>45.8600165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>42.482350000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14.516935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.7201385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.77281580000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.40499799999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.67274265</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.76874175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.54779405000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.86808805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.67806739999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,6 +3127,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2903,37 +3170,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1936.1265000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1920.3589999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1940.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1927.7445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1909.2914999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1811.5149999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1693.3340000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1814.2370000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1721.9814999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>72.410349999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0106744999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,37 +3252,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1846904999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.8798240000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.8604595000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.0079470000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2055514999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.2070924999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.1305784999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.3591250000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.3687315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.9158825000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.4928305000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,7 +3385,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3176,7 +3443,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3342,6 +3609,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3352,37 +3652,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>102.55266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>57.510840000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29.450646499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.1005901500000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.3239775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.3647564999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.2143695000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.19600624999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.80209419999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.35709859999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.47302549999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,6 +3979,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3689,37 +4022,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1548.4879999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1551.7375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1532.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1540.5045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1527.1125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1510.3205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1512.1475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1490.0495000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1351.0149999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>68.271884999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0181079999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,37 +4104,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7037610000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7102949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7125360000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.7157819999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.7513464999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7800064999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.8460160000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2014065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.1719485000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.7907479999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.4227619999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,7 +4237,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3963,7 +4296,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4119,6 +4452,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4129,37 +4495,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1728.5305000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1724.2855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1704.9275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1658.211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1701.4344999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1690.2649999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1668.2975000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1629.0720000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1536.9059999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>70.016539999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0262700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,37 +4577,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.636628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.596489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.6198505000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6852255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.640012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7756344999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7807955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.1090409999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.9965315000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.6715914999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.3392770000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4344,7 +4710,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4403,7 +4769,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4558,6 +4924,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4568,37 +4967,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9887674999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2439475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.75773129999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.68933314999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.8553058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.29080115000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.18352835000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.28070869999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.15519464999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.14259480000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.4699625000000009E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,6 +5284,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4895,37 +5327,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1721.3440000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1711.837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1723.4110000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1707.2159999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1702.5695000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1670.9569999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1659.941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1618.999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1503.9655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>72.822935000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0189985000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4977,37 +5409,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.0217000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.0088444999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9815394999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9653545000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0598239999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.2313019999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.1894904999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.5405890000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.241161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.4944009999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.3939184999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5542,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5168,7 +5600,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -5324,6 +5756,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5334,37 +5799,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.447514999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.743133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9271644999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.5904425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9090820000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.71590774999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.25437284999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.18563445000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.15580464999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.3547094999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.6750810000000008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5931,6 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5518,7 +5982,6 @@
         <c:crossAx val="805208015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5653,6 +6116,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5663,37 +6159,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1529.5455000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1531.4075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1514.4045000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1521.5014999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1517.384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1485.8045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1490.9169999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1450.6320000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1315.9365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>67.325220000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0167869999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5745,37 +6241,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7004465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7183820000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7144295000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.7230075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.7608649999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.8098040000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.839305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2630824999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.0702189999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.5105529999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.3048944999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,7 +6374,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5937,7 +6433,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6093,6 +6589,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6103,37 +6632,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.326156000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.8908290000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9576875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.3369825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.0849414999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.1020859999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.898566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.86974647500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0655349999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.65135562499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.1112809999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6424,6 +6953,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6434,37 +6996,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1382.896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1291.7449999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1372.4850000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1373.0825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1454.991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1441.1970000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1436.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1399.5529999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1264.7755</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>73.732814999999988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.0156305000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,37 +7078,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5561235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6405409999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5734680000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6579285000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.6861915000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.7537644999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7981419999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.0847644999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.0155599999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.4381544999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.3465689999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6649,7 +7211,7 @@
         <c:axId val="805208431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6708,7 +7270,7 @@
         <c:axId val="805202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6873,6 +7435,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6883,37 +7478,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.2178070000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.8255844999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.5348230000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7802386000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85842679999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.2671538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.74775695000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.50281094999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6997968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.68269610000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.41303390000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,10 +8674,1805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB92DA59-0B78-4028-B69B-DBFC0EF6F8BD}">
-  <dimension ref="A3:X70"/>
+  <dimension ref="A3:X81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>11.90138</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(C4,C16)</f>
+        <v>8.2395905000000003</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1966.7049999999999</v>
+      </c>
+      <c r="U4">
+        <v>2712154</v>
+      </c>
+      <c r="W4">
+        <f>AVERAGE(T4,T16)</f>
+        <v>1720.5994999999998</v>
+      </c>
+      <c r="X4">
+        <f>AVERAGE(U4,U16)/1000000</f>
+        <v>2.7264655000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3.4380139999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="0">AVERAGE(C5,C17)</f>
+        <v>3.2203615000000001</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>1968.5630000000001</v>
+      </c>
+      <c r="U5">
+        <v>2596724</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W15" si="1">AVERAGE(T5,T17)</f>
+        <v>1728.5305000000001</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X15" si="2">AVERAGE(U5,U17)/1000000</f>
+        <v>2.636628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2.020381</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.6027060000000004</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>1953.2529999999999</v>
+      </c>
+      <c r="U6">
+        <v>2508898</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>1724.2855</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>2.596489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>1.6846890000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.1852162000000002</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>1948.502</v>
+      </c>
+      <c r="U7">
+        <v>2577181</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>1704.9275</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>2.6198505000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>2.1789529999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2605176999999999</v>
+      </c>
+      <c r="S8">
+        <v>160</v>
+      </c>
+      <c r="T8">
+        <v>1863.856</v>
+      </c>
+      <c r="U8">
+        <v>2571109</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1658.211</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>2.6852255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9">
+        <v>0.50727979999999995</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.46255815</v>
+      </c>
+      <c r="S9">
+        <v>320</v>
+      </c>
+      <c r="T9">
+        <v>1934.173</v>
+      </c>
+      <c r="U9">
+        <v>2562797</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>1701.4344999999998</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>2.640012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>640</v>
+      </c>
+      <c r="C10">
+        <v>0.1250908</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9.0689640000000002E-2</v>
+      </c>
+      <c r="S10">
+        <v>640</v>
+      </c>
+      <c r="T10">
+        <v>1918.289</v>
+      </c>
+      <c r="U10">
+        <v>2761344</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>1690.2649999999999</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>2.7756344999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1280</v>
+      </c>
+      <c r="C11">
+        <v>0.29114060000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.23045019999999999</v>
+      </c>
+      <c r="S11">
+        <v>1280</v>
+      </c>
+      <c r="T11">
+        <v>1902.854</v>
+      </c>
+      <c r="U11">
+        <v>2755949</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>1668.2975000000001</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>2.7807955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2560</v>
+      </c>
+      <c r="C12">
+        <v>5.0395509999999998E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5.0116220000000003E-2</v>
+      </c>
+      <c r="S12">
+        <v>2560</v>
+      </c>
+      <c r="T12">
+        <v>1852.5139999999999</v>
+      </c>
+      <c r="U12">
+        <v>3099985</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>1629.0720000000001</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>3.1090409999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>5120</v>
+      </c>
+      <c r="C13">
+        <v>1.581082E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.1044120000000001E-2</v>
+      </c>
+      <c r="S13">
+        <v>5120</v>
+      </c>
+      <c r="T13">
+        <v>1780.817</v>
+      </c>
+      <c r="U13">
+        <v>3931593</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>1536.9059999999999</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>3.9965315000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10240</v>
+      </c>
+      <c r="C14">
+        <v>2.7699729999999999E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.841699E-2</v>
+      </c>
+      <c r="S14">
+        <v>10240</v>
+      </c>
+      <c r="T14">
+        <v>69.575990000000004</v>
+      </c>
+      <c r="U14">
+        <v>5666356</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>70.016539999999992</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>5.6715914999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>20480</v>
+      </c>
+      <c r="C15">
+        <v>5.1166079999999999E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>8.4849289999999987E-3</v>
+      </c>
+      <c r="S15">
+        <v>20480</v>
+      </c>
+      <c r="T15">
+        <v>3.0244490000000002</v>
+      </c>
+      <c r="U15">
+        <v>7392553</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>3.0262700000000002</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>7.3392770000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>4.577801</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>1474.4939999999999</v>
+      </c>
+      <c r="U16">
+        <v>2740777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>3.0027089999999999</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>1488.498</v>
+      </c>
+      <c r="U17">
+        <v>2676532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>5.1850310000000004</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>1495.318</v>
+      </c>
+      <c r="U18">
+        <v>2684080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>0.6857434</v>
+      </c>
+      <c r="S19">
+        <v>80</v>
+      </c>
+      <c r="T19">
+        <v>1461.3530000000001</v>
+      </c>
+      <c r="U19">
+        <v>2662520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>0.34208240000000001</v>
+      </c>
+      <c r="S20">
+        <v>160</v>
+      </c>
+      <c r="T20">
+        <v>1452.566</v>
+      </c>
+      <c r="U20">
+        <v>2799342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="C21">
+        <v>0.4178365</v>
+      </c>
+      <c r="S21">
+        <v>320</v>
+      </c>
+      <c r="T21">
+        <v>1468.6959999999999</v>
+      </c>
+      <c r="U21">
+        <v>2717227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>640</v>
+      </c>
+      <c r="C22">
+        <v>5.6288480000000002E-2</v>
+      </c>
+      <c r="S22">
+        <v>640</v>
+      </c>
+      <c r="T22">
+        <v>1462.241</v>
+      </c>
+      <c r="U22">
+        <v>2789925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1280</v>
+      </c>
+      <c r="C23">
+        <v>0.16975979999999999</v>
+      </c>
+      <c r="S23">
+        <v>1280</v>
+      </c>
+      <c r="T23">
+        <v>1433.741</v>
+      </c>
+      <c r="U23">
+        <v>2805642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2560</v>
+      </c>
+      <c r="C24">
+        <v>4.9836930000000002E-2</v>
+      </c>
+      <c r="S24">
+        <v>2560</v>
+      </c>
+      <c r="T24">
+        <v>1405.63</v>
+      </c>
+      <c r="U24">
+        <v>3118097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5120</v>
+      </c>
+      <c r="C25">
+        <v>4.627742E-2</v>
+      </c>
+      <c r="S25">
+        <v>5120</v>
+      </c>
+      <c r="T25">
+        <v>1292.9949999999999</v>
+      </c>
+      <c r="U25">
+        <v>4061470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10240</v>
+      </c>
+      <c r="C26">
+        <v>2.913425E-2</v>
+      </c>
+      <c r="S26">
+        <v>10240</v>
+      </c>
+      <c r="T26">
+        <v>70.457089999999994</v>
+      </c>
+      <c r="U26">
+        <v>5676827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20480</v>
+      </c>
+      <c r="C27">
+        <v>1.1853249999999999E-2</v>
+      </c>
+      <c r="S27">
+        <v>20480</v>
+      </c>
+      <c r="T27">
+        <v>3.0280909999999999</v>
+      </c>
+      <c r="U27">
+        <v>7286001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>20.14564</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(C31,C43)</f>
+        <v>19.656314999999999</v>
+      </c>
+      <c r="R31" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>1474.2280000000001</v>
+      </c>
+      <c r="U31">
+        <v>3336461</v>
+      </c>
+      <c r="W31">
+        <f>AVERAGE(T31,T43)</f>
+        <v>1708.6610000000001</v>
+      </c>
+      <c r="X31">
+        <f>AVERAGE(U31,U43)/1000000</f>
+        <v>3.1438145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>2.334625</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F42" si="3">AVERAGE(C32,C44)</f>
+        <v>7.9887674999999998</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>1488.972</v>
+      </c>
+      <c r="U32">
+        <v>3002296</v>
+      </c>
+      <c r="W32">
+        <f t="shared" ref="W32:W42" si="4">AVERAGE(T32,T44)</f>
+        <v>1721.3440000000001</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ref="X32:X42" si="5">AVERAGE(U32,U44)/1000000</f>
+        <v>3.0217000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>2.1120649999999999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>2.2439475</v>
+      </c>
+      <c r="S33">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>1478.5730000000001</v>
+      </c>
+      <c r="U33">
+        <v>2868147</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>1711.837</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>3.0088444999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>1.3762509999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.75773129999999989</v>
+      </c>
+      <c r="S34">
+        <v>80</v>
+      </c>
+      <c r="T34">
+        <v>1483.8019999999999</v>
+      </c>
+      <c r="U34">
+        <v>2893880</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>1723.4110000000001</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>2.9815394999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>0.83609219999999995</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.68933314999999995</v>
+      </c>
+      <c r="S35">
+        <v>160</v>
+      </c>
+      <c r="T35">
+        <v>1463.395</v>
+      </c>
+      <c r="U35">
+        <v>3076319</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>1707.2159999999999</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>2.9653545000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>320</v>
+      </c>
+      <c r="C36">
+        <v>1.325491</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.8553058</v>
+      </c>
+      <c r="S36">
+        <v>320</v>
+      </c>
+      <c r="T36">
+        <v>1459.2529999999999</v>
+      </c>
+      <c r="U36">
+        <v>3193395</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>1702.5695000000001</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>3.0598239999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>640</v>
+      </c>
+      <c r="C37">
+        <v>0.20050219999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.29080115000000001</v>
+      </c>
+      <c r="S37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>1431.7380000000001</v>
+      </c>
+      <c r="U37">
+        <v>3310319</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>1670.9569999999999</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>3.2313019999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1280</v>
+      </c>
+      <c r="C38">
+        <v>0.141096</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.18352835000000001</v>
+      </c>
+      <c r="S38">
+        <v>1280</v>
+      </c>
+      <c r="T38">
+        <v>1429.9059999999999</v>
+      </c>
+      <c r="U38">
+        <v>3101368</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>1659.941</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>3.1894904999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2560</v>
+      </c>
+      <c r="C39">
+        <v>0.2447944</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.28070869999999998</v>
+      </c>
+      <c r="S39">
+        <v>2560</v>
+      </c>
+      <c r="T39">
+        <v>1404.9380000000001</v>
+      </c>
+      <c r="U39">
+        <v>3639539</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>1618.999</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>3.5405890000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5120</v>
+      </c>
+      <c r="C40">
+        <v>0.19966419999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.15519464999999999</v>
+      </c>
+      <c r="S40">
+        <v>5120</v>
+      </c>
+      <c r="T40">
+        <v>1270.1790000000001</v>
+      </c>
+      <c r="U40">
+        <v>4428452</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="4"/>
+        <v>1503.9655</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>4.241161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>10240</v>
+      </c>
+      <c r="C41">
+        <v>0.15804860000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.14259480000000002</v>
+      </c>
+      <c r="S41">
+        <v>10240</v>
+      </c>
+      <c r="T41">
+        <v>76.763040000000004</v>
+      </c>
+      <c r="U41">
+        <v>5535002</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>72.822935000000001</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>5.4944009999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>20480</v>
+      </c>
+      <c r="C42">
+        <v>1.1853249999999999E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>9.4699625000000009E-2</v>
+      </c>
+      <c r="S42">
+        <v>20480</v>
+      </c>
+      <c r="T42">
+        <v>3.0235240000000001</v>
+      </c>
+      <c r="U42">
+        <v>7446337</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="4"/>
+        <v>3.0189985000000004</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>7.3939184999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>19.166989999999998</v>
+      </c>
+      <c r="R43" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>1943.0940000000001</v>
+      </c>
+      <c r="U43">
+        <v>2951168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>13.642910000000001</v>
+      </c>
+      <c r="S44">
+        <v>20</v>
+      </c>
+      <c r="T44">
+        <v>1953.7159999999999</v>
+      </c>
+      <c r="U44">
+        <v>3041104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>2.3758300000000001</v>
+      </c>
+      <c r="S45">
+        <v>40</v>
+      </c>
+      <c r="T45">
+        <v>1945.1010000000001</v>
+      </c>
+      <c r="U45">
+        <v>3149542</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>0.13921159999999999</v>
+      </c>
+      <c r="S46">
+        <v>80</v>
+      </c>
+      <c r="T46">
+        <v>1963.02</v>
+      </c>
+      <c r="U46">
+        <v>3069199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>0.54257409999999995</v>
+      </c>
+      <c r="S47">
+        <v>160</v>
+      </c>
+      <c r="T47">
+        <v>1951.037</v>
+      </c>
+      <c r="U47">
+        <v>2854390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>320</v>
+      </c>
+      <c r="C48">
+        <v>0.38512059999999998</v>
+      </c>
+      <c r="S48">
+        <v>320</v>
+      </c>
+      <c r="T48">
+        <v>1945.886</v>
+      </c>
+      <c r="U48">
+        <v>2926253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>640</v>
+      </c>
+      <c r="C49">
+        <v>0.3811001</v>
+      </c>
+      <c r="S49">
+        <v>640</v>
+      </c>
+      <c r="T49">
+        <v>1910.1759999999999</v>
+      </c>
+      <c r="U49">
+        <v>3152285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1280</v>
+      </c>
+      <c r="C50">
+        <v>0.22596069999999999</v>
+      </c>
+      <c r="S50">
+        <v>1280</v>
+      </c>
+      <c r="T50">
+        <v>1889.9760000000001</v>
+      </c>
+      <c r="U50">
+        <v>3277613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2560</v>
+      </c>
+      <c r="C51">
+        <v>0.31662299999999999</v>
+      </c>
+      <c r="S51">
+        <v>2560</v>
+      </c>
+      <c r="T51">
+        <v>1833.06</v>
+      </c>
+      <c r="U51">
+        <v>3441639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5120</v>
+      </c>
+      <c r="C52">
+        <v>0.11072510000000001</v>
+      </c>
+      <c r="S52">
+        <v>5120</v>
+      </c>
+      <c r="T52">
+        <v>1737.752</v>
+      </c>
+      <c r="U52">
+        <v>4053870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10240</v>
+      </c>
+      <c r="C53">
+        <v>0.127141</v>
+      </c>
+      <c r="S53">
+        <v>10240</v>
+      </c>
+      <c r="T53">
+        <v>68.882829999999998</v>
+      </c>
+      <c r="U53">
+        <v>5453800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>20480</v>
+      </c>
+      <c r="C54">
+        <v>0.17754600000000001</v>
+      </c>
+      <c r="S54">
+        <v>20480</v>
+      </c>
+      <c r="T54">
+        <v>3.0144730000000002</v>
+      </c>
+      <c r="U54">
+        <v>7341500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <f>AVERAGE(C58,C70)</f>
+        <v>21.344339999999999</v>
+      </c>
+      <c r="R58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>1411.489</v>
+      </c>
+      <c r="U58">
+        <v>2772096</v>
+      </c>
+      <c r="W58">
+        <f>AVERAGE(T58,T70)</f>
+        <v>1519.4970000000001</v>
+      </c>
+      <c r="X58">
+        <f>AVERAGE(U58,U70)/1000000</f>
+        <v>2.7836615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>20.184850000000001</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:F69" si="6">AVERAGE(C59,C71)</f>
+        <v>15.447514999999999</v>
+      </c>
+      <c r="S59">
+        <v>20</v>
+      </c>
+      <c r="T59">
+        <v>1432.432</v>
+      </c>
+      <c r="U59">
+        <v>2714692</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59:W69" si="7">AVERAGE(T59,T71)</f>
+        <v>1529.5455000000002</v>
+      </c>
+      <c r="X59">
+        <f t="shared" ref="X59:X69" si="8">AVERAGE(U59,U71)/1000000</f>
+        <v>2.7004465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>8.2625259999999994</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>15.743133</v>
+      </c>
+      <c r="S60">
+        <v>40</v>
+      </c>
+      <c r="T60">
+        <v>1440.2270000000001</v>
+      </c>
+      <c r="U60">
+        <v>2739312</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="7"/>
+        <v>1531.4075</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="8"/>
+        <v>2.7183820000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>2.2200389999999999</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>1.9271644999999999</v>
+      </c>
+      <c r="S61">
+        <v>80</v>
+      </c>
+      <c r="T61">
+        <v>1410.463</v>
+      </c>
+      <c r="U61">
+        <v>2712584</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="7"/>
+        <v>1514.4045000000001</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="8"/>
+        <v>2.7144295000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>1.7178020000000001</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>2.5904425</v>
+      </c>
+      <c r="S62">
+        <v>160</v>
+      </c>
+      <c r="T62">
+        <v>1428.5889999999999</v>
+      </c>
+      <c r="U62">
+        <v>2737083</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="7"/>
+        <v>1521.5014999999999</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="8"/>
+        <v>2.7230075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>320</v>
+      </c>
+      <c r="C63">
+        <v>2.7265320000000002</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>1.9090820000000002</v>
+      </c>
+      <c r="S63">
+        <v>320</v>
+      </c>
+      <c r="T63">
+        <v>1423.2159999999999</v>
+      </c>
+      <c r="U63">
+        <v>2742158</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="7"/>
+        <v>1517.384</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="8"/>
+        <v>2.7608649999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>640</v>
+      </c>
+      <c r="C64">
+        <v>0.87473990000000001</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>0.71590774999999995</v>
+      </c>
+      <c r="S64">
+        <v>640</v>
+      </c>
+      <c r="T64">
+        <v>1380.472</v>
+      </c>
+      <c r="U64">
+        <v>2808825</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="7"/>
+        <v>1485.8045</v>
+      </c>
+      <c r="X64">
+        <f>AVERAGE(U64,U76)/1000000</f>
+        <v>2.8098040000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1280</v>
+      </c>
+      <c r="C65">
+        <v>0.30013810000000002</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>0.25437284999999998</v>
+      </c>
+      <c r="S65">
+        <v>1280</v>
+      </c>
+      <c r="T65">
+        <v>1393.385</v>
+      </c>
+      <c r="U65">
+        <v>2827770</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="7"/>
+        <v>1490.9169999999999</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="8"/>
+        <v>2.839305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2560</v>
+      </c>
+      <c r="C66">
+        <v>0.22102379999999999</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>0.18563445000000001</v>
+      </c>
+      <c r="S66">
+        <v>2560</v>
+      </c>
+      <c r="T66">
+        <v>1338.2070000000001</v>
+      </c>
+      <c r="U66">
+        <v>3266036</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="7"/>
+        <v>1450.6320000000001</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="8"/>
+        <v>3.2630824999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>5120</v>
+      </c>
+      <c r="C67">
+        <v>0.1762012</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="6"/>
+        <v>0.15580464999999999</v>
+      </c>
+      <c r="S67">
+        <v>5120</v>
+      </c>
+      <c r="T67">
+        <v>1232.6469999999999</v>
+      </c>
+      <c r="U67">
+        <v>4064229</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="7"/>
+        <v>1315.9365</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="8"/>
+        <v>4.0702189999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>10240</v>
+      </c>
+      <c r="C68">
+        <v>3.4594840000000002E-2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>3.3547094999999999E-2</v>
+      </c>
+      <c r="S68">
+        <v>10240</v>
+      </c>
+      <c r="T68">
+        <v>69.760040000000004</v>
+      </c>
+      <c r="U68">
+        <v>5830444</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="7"/>
+        <v>67.325220000000002</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="8"/>
+        <v>5.5105529999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>20480</v>
+      </c>
+      <c r="C69">
+        <v>7.8416490000000005E-2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>6.6750810000000008E-2</v>
+      </c>
+      <c r="S69">
+        <v>20480</v>
+      </c>
+      <c r="T69">
+        <v>3.0097269999999998</v>
+      </c>
+      <c r="U69">
+        <v>7431176</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="7"/>
+        <v>3.0167869999999999</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="8"/>
+        <v>7.3048944999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>21.344339999999999</v>
+      </c>
+      <c r="R70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>1627.5050000000001</v>
+      </c>
+      <c r="U70">
+        <v>2795227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>10.710179999999999</v>
+      </c>
+      <c r="S71">
+        <v>20</v>
+      </c>
+      <c r="T71">
+        <v>1626.6590000000001</v>
+      </c>
+      <c r="U71">
+        <v>2686201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>23.223739999999999</v>
+      </c>
+      <c r="S72">
+        <v>40</v>
+      </c>
+      <c r="T72">
+        <v>1622.588</v>
+      </c>
+      <c r="U72">
+        <v>2697452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1.63429</v>
+      </c>
+      <c r="S73">
+        <v>80</v>
+      </c>
+      <c r="T73">
+        <v>1618.346</v>
+      </c>
+      <c r="U73">
+        <v>2716275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>160</v>
+      </c>
+      <c r="C74">
+        <v>3.4630830000000001</v>
+      </c>
+      <c r="S74">
+        <v>160</v>
+      </c>
+      <c r="T74">
+        <v>1614.414</v>
+      </c>
+      <c r="U74">
+        <v>2708932</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>320</v>
+      </c>
+      <c r="C75">
+        <v>1.0916319999999999</v>
+      </c>
+      <c r="S75">
+        <v>320</v>
+      </c>
+      <c r="T75">
+        <v>1611.5519999999999</v>
+      </c>
+      <c r="U75">
+        <v>2779572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>640</v>
+      </c>
+      <c r="C76">
+        <v>0.5570756</v>
+      </c>
+      <c r="S76">
+        <v>640</v>
+      </c>
+      <c r="T76">
+        <v>1591.1369999999999</v>
+      </c>
+      <c r="U76">
+        <v>2810783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1280</v>
+      </c>
+      <c r="C77">
+        <v>0.2086076</v>
+      </c>
+      <c r="S77">
+        <v>1280</v>
+      </c>
+      <c r="T77">
+        <v>1588.4490000000001</v>
+      </c>
+      <c r="U77">
+        <v>2850840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2560</v>
+      </c>
+      <c r="C78">
+        <v>0.15024509999999999</v>
+      </c>
+      <c r="S78">
+        <v>2560</v>
+      </c>
+      <c r="T78">
+        <v>1563.057</v>
+      </c>
+      <c r="U78">
+        <v>3260129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>5120</v>
+      </c>
+      <c r="C79">
+        <v>0.1354081</v>
+      </c>
+      <c r="S79">
+        <v>5120</v>
+      </c>
+      <c r="T79">
+        <v>1399.2260000000001</v>
+      </c>
+      <c r="U79">
+        <v>4076209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>10240</v>
+      </c>
+      <c r="C80">
+        <v>3.2499350000000003E-2</v>
+      </c>
+      <c r="S80">
+        <v>10240</v>
+      </c>
+      <c r="T80">
+        <v>64.8904</v>
+      </c>
+      <c r="U80">
+        <v>5190662</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>20480</v>
+      </c>
+      <c r="C81">
+        <v>5.5085130000000003E-2</v>
+      </c>
+      <c r="S81">
+        <v>20480</v>
+      </c>
+      <c r="T81">
+        <v>3.023847</v>
+      </c>
+      <c r="U81">
+        <v>7178613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD3C77-BB9D-41C2-98AA-A4623EF53FEF}">
+  <dimension ref="A3:X81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8125,182 +10515,564 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="e">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <f>AVERAGE(C4,C16)</f>
-        <v>#DIV/0!</v>
+        <v>7.8650060000000002</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
       </c>
-      <c r="W4" t="e">
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1064.259</v>
+      </c>
+      <c r="U4">
+        <v>1909227</v>
+      </c>
+      <c r="W4">
         <f>AVERAGE(T4,T16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" t="e">
+        <v>1268.1615000000002</v>
+      </c>
+      <c r="X4">
         <f>AVERAGE(U4,U16)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.35148</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F5" t="e">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6.247052</v>
+      </c>
+      <c r="F5">
         <f t="shared" ref="F5:F15" si="0">AVERAGE(C5,C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" t="e">
+        <v>9.326156000000001</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>1300.971</v>
+      </c>
+      <c r="U5">
+        <v>2422749</v>
+      </c>
+      <c r="W5">
         <f t="shared" ref="W5:W15" si="1">AVERAGE(T5,T17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" t="e">
+        <v>1382.896</v>
+      </c>
+      <c r="X5">
         <f t="shared" ref="X5:X15" si="2">AVERAGE(U5,U17)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.5561235</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F6" t="e">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>3.8908290000000001</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>3.8908290000000001</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>1088.9179999999999</v>
+      </c>
+      <c r="U6">
+        <v>2609605</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>1291.7449999999999</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6405409999999998</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F7" t="e">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>3.368951</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>3.9576875</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>1259.874</v>
+      </c>
+      <c r="U7">
+        <v>2482974</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>1372.4850000000001</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.5734680000000001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>3.1686480000000001</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" t="e">
+        <v>3.3369825</v>
+      </c>
+      <c r="S8">
+        <v>160</v>
+      </c>
+      <c r="T8">
+        <v>1267.2249999999999</v>
+      </c>
+      <c r="U8">
+        <v>2615985</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" t="e">
+        <v>1373.0825</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6579285000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F9" t="e">
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9">
+        <v>3.1073119999999999</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" t="e">
+        <v>2.0849414999999998</v>
+      </c>
+      <c r="S9">
+        <v>320</v>
+      </c>
+      <c r="T9">
+        <v>1440.9870000000001</v>
+      </c>
+      <c r="U9">
+        <v>2650315</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" t="e">
+        <v>1454.991</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6861915000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F10" t="e">
+      <c r="B10">
+        <v>640</v>
+      </c>
+      <c r="C10">
+        <v>2.3657249999999999</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" t="e">
+        <v>2.1020859999999999</v>
+      </c>
+      <c r="S10">
+        <v>640</v>
+      </c>
+      <c r="T10">
+        <v>1447.0160000000001</v>
+      </c>
+      <c r="U10">
+        <v>2663197</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" t="e">
+        <v>1441.1970000000001</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7537644999999999</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F11" t="e">
+      <c r="B11">
+        <v>1280</v>
+      </c>
+      <c r="C11">
+        <v>1.600301</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>1.898566</v>
+      </c>
+      <c r="S11">
+        <v>1280</v>
+      </c>
+      <c r="T11">
+        <v>1431.296</v>
+      </c>
+      <c r="U11">
+        <v>2763750</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" t="e">
+        <v>1436.93</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7981419999999999</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F12" t="e">
+      <c r="B12">
+        <v>2560</v>
+      </c>
+      <c r="C12">
+        <v>3.6484950000000002E-2</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" t="e">
+        <v>0.86974647500000002</v>
+      </c>
+      <c r="S12">
+        <v>2560</v>
+      </c>
+      <c r="T12">
+        <v>1389.6869999999999</v>
+      </c>
+      <c r="U12">
+        <v>3049831</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" t="e">
+        <v>1399.5529999999999</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.0847644999999999</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F13" t="e">
+      <c r="B13">
+        <v>5120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" t="e">
+        <v>1.0655349999999999</v>
+      </c>
+      <c r="S13">
+        <v>5120</v>
+      </c>
+      <c r="T13">
+        <v>1260.345</v>
+      </c>
+      <c r="U13">
+        <v>3960165</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" t="e">
+        <v>1264.7755</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.0155599999999998</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F14" t="e">
+      <c r="B14">
+        <v>10240</v>
+      </c>
+      <c r="C14">
+        <v>1.2771490000000001</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" t="e">
+        <v>0.65135562499999999</v>
+      </c>
+      <c r="S14">
+        <v>10240</v>
+      </c>
+      <c r="T14">
+        <v>70.180009999999996</v>
+      </c>
+      <c r="U14">
+        <v>5205077</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" t="e">
+        <v>73.732814999999988</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.4381544999999996</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F15" t="e">
+      <c r="B15">
+        <v>20480</v>
+      </c>
+      <c r="C15">
+        <v>8.9056540000000003E-2</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e">
+        <v>7.1112809999999999E-2</v>
+      </c>
+      <c r="S15">
+        <v>20480</v>
+      </c>
+      <c r="T15">
+        <v>3.0258910000000001</v>
+      </c>
+      <c r="U15">
+        <v>7396726</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" t="e">
+        <v>3.0156305000000003</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>7.3465689999999997</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7.8650060000000002</v>
+      </c>
       <c r="R16" t="s">
         <v>2</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>1472.0640000000001</v>
+      </c>
+      <c r="U16">
+        <v>2793733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>12.40526</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>1464.8209999999999</v>
+      </c>
+      <c r="U17">
+        <v>2689498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>1494.5719999999999</v>
+      </c>
+      <c r="U18">
+        <v>2671477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>4.546424</v>
+      </c>
+      <c r="S19">
+        <v>80</v>
+      </c>
+      <c r="T19">
+        <v>1485.096</v>
+      </c>
+      <c r="U19">
+        <v>2663962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>3.5053169999999998</v>
+      </c>
+      <c r="S20">
+        <v>160</v>
+      </c>
+      <c r="T20">
+        <v>1478.94</v>
+      </c>
+      <c r="U20">
+        <v>2699872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="C21">
+        <v>1.0625709999999999</v>
+      </c>
+      <c r="S21">
+        <v>320</v>
+      </c>
+      <c r="T21">
+        <v>1468.9949999999999</v>
+      </c>
+      <c r="U21">
+        <v>2722068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>640</v>
+      </c>
+      <c r="C22">
+        <v>1.8384469999999999</v>
+      </c>
+      <c r="S22">
+        <v>640</v>
+      </c>
+      <c r="T22">
+        <v>1435.3779999999999</v>
+      </c>
+      <c r="U22">
+        <v>2844332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1280</v>
+      </c>
+      <c r="C23">
+        <v>2.196831</v>
+      </c>
+      <c r="S23">
+        <v>1280</v>
+      </c>
+      <c r="T23">
+        <v>1442.5640000000001</v>
+      </c>
+      <c r="U23">
+        <v>2832534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2560</v>
+      </c>
+      <c r="C24">
+        <v>1.7030080000000001</v>
+      </c>
+      <c r="S24">
+        <v>2560</v>
+      </c>
+      <c r="T24">
+        <v>1409.4190000000001</v>
+      </c>
+      <c r="U24">
+        <v>3119698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5120</v>
+      </c>
+      <c r="C25">
+        <v>1.0655349999999999</v>
+      </c>
+      <c r="S25">
+        <v>5120</v>
+      </c>
+      <c r="T25">
+        <v>1269.2059999999999</v>
+      </c>
+      <c r="U25">
+        <v>4070955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10240</v>
+      </c>
+      <c r="C26">
+        <v>2.5562250000000002E-2</v>
+      </c>
+      <c r="S26">
+        <v>10240</v>
+      </c>
+      <c r="T26">
+        <v>77.285619999999994</v>
+      </c>
+      <c r="U26">
+        <v>5671232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20480</v>
+      </c>
+      <c r="C27">
+        <v>5.3169080000000001E-2</v>
+      </c>
+      <c r="S27">
+        <v>20480</v>
+      </c>
+      <c r="T27">
+        <v>3.0053700000000001</v>
+      </c>
+      <c r="U27">
+        <v>7296412</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -8333,182 +11105,564 @@
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" t="e">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>42.912849999999999</v>
+      </c>
+      <c r="F31">
         <f>AVERAGE(C31,C43)</f>
-        <v>#DIV/0!</v>
+        <v>69.442395000000005</v>
       </c>
       <c r="R31" t="s">
         <v>2</v>
       </c>
-      <c r="W31" t="e">
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>1934.91</v>
+      </c>
+      <c r="U31">
+        <v>3232125</v>
+      </c>
+      <c r="W31">
         <f>AVERAGE(T31,T43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" t="e">
+        <v>1939.8040000000001</v>
+      </c>
+      <c r="X31">
         <f>AVERAGE(U31,U43)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>3.1984249999999999</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F32" t="e">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>2.143974</v>
+      </c>
+      <c r="F32">
         <f t="shared" ref="F32:F42" si="3">AVERAGE(C32,C44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" t="e">
+        <v>9.2178070000000005</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>1925.809</v>
+      </c>
+      <c r="U32">
+        <v>2978108</v>
+      </c>
+      <c r="W32">
         <f t="shared" ref="W32:W42" si="4">AVERAGE(T32,T44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" t="e">
+        <v>1927.499</v>
+      </c>
+      <c r="X32">
         <f t="shared" ref="X32:X42" si="5">AVERAGE(U32,U44)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>3.0652689999999998</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F33" t="e">
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>5.6896199999999997</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" t="e">
+        <v>3.8255844999999997</v>
+      </c>
+      <c r="S33">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>1947.8630000000001</v>
+      </c>
+      <c r="U33">
+        <v>2756422</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" t="e">
+        <v>1943.9165</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.8921994999999998</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F34" t="e">
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>8.3831769999999999</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" t="e">
+        <v>5.5348230000000003</v>
+      </c>
+      <c r="S34">
+        <v>80</v>
+      </c>
+      <c r="T34">
+        <v>1940.405</v>
+      </c>
+      <c r="U34">
+        <v>2885232</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" t="e">
+        <v>1946.204</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.8414955000000002</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" t="e">
+      <c r="B35">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>2.7522540000000002</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" t="e">
+        <v>1.7802386000000001</v>
+      </c>
+      <c r="S35">
+        <v>160</v>
+      </c>
+      <c r="T35">
+        <v>1920.021</v>
+      </c>
+      <c r="U35">
+        <v>3018820</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" t="e">
+        <v>1929.4745</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.9762325000000001</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" t="e">
+      <c r="B36">
+        <v>320</v>
+      </c>
+      <c r="C36">
+        <v>1.26528</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" t="e">
+        <v>0.85842679999999993</v>
+      </c>
+      <c r="S36">
+        <v>320</v>
+      </c>
+      <c r="T36">
+        <v>1917.2650000000001</v>
+      </c>
+      <c r="U36">
+        <v>3138942</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" t="e">
+        <v>1923.4085</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.1221960000000002</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" t="e">
+      <c r="B37">
+        <v>640</v>
+      </c>
+      <c r="C37">
+        <v>0.30159010000000003</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" t="e">
+        <v>0.2671538</v>
+      </c>
+      <c r="S37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>1896.3610000000001</v>
+      </c>
+      <c r="U37">
+        <v>3118085</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" t="e">
+        <v>1890.4780000000001</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.0990389999999999</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" t="e">
+      <c r="B38">
+        <v>1280</v>
+      </c>
+      <c r="C38">
+        <v>0.64495550000000001</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" t="e">
+        <v>0.74775695000000009</v>
+      </c>
+      <c r="S38">
+        <v>1280</v>
+      </c>
+      <c r="T38">
+        <v>1871.127</v>
+      </c>
+      <c r="U38">
+        <v>2987068</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" t="e">
+        <v>1881.7235000000001</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.1404125000000001</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F39" t="e">
+      <c r="B39">
+        <v>2560</v>
+      </c>
+      <c r="C39">
+        <v>0.58251419999999998</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" t="e">
+        <v>0.50281094999999998</v>
+      </c>
+      <c r="S39">
+        <v>2560</v>
+      </c>
+      <c r="T39">
+        <v>1855.8910000000001</v>
+      </c>
+      <c r="U39">
+        <v>3439336</v>
+      </c>
+      <c r="W39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" t="e">
+        <v>1862.5445</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.410879</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F40" t="e">
+      <c r="B40">
+        <v>5120</v>
+      </c>
+      <c r="C40">
+        <v>0.421761</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" t="e">
+        <v>0.6997968</v>
+      </c>
+      <c r="S40">
+        <v>5120</v>
+      </c>
+      <c r="T40">
+        <v>1713.723</v>
+      </c>
+      <c r="U40">
+        <v>4340732</v>
+      </c>
+      <c r="W40">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X40" t="e">
+        <v>1744.8025</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.4309374999999998</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F41" t="e">
+      <c r="B41">
+        <v>10240</v>
+      </c>
+      <c r="C41">
+        <v>0.56028789999999995</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" t="e">
+        <v>0.68269610000000003</v>
+      </c>
+      <c r="S41">
+        <v>10240</v>
+      </c>
+      <c r="T41">
+        <v>69.576740000000001</v>
+      </c>
+      <c r="U41">
+        <v>5555750</v>
+      </c>
+      <c r="W41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" t="e">
+        <v>69.197540000000004</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.6226624999999997</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F42" t="e">
+      <c r="B42">
+        <v>20480</v>
+      </c>
+      <c r="C42">
+        <v>0.41303390000000001</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W42" t="e">
+        <v>0.41303390000000001</v>
+      </c>
+      <c r="S42">
+        <v>20480</v>
+      </c>
+      <c r="T42">
+        <v>3.0221659999999999</v>
+      </c>
+      <c r="U42">
+        <v>7585587</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X42" t="e">
+        <v>3.0357064999999999</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7.5823875000000003</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>95.971940000000004</v>
+      </c>
       <c r="R43" t="s">
         <v>2</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>1944.6980000000001</v>
+      </c>
+      <c r="U43">
+        <v>3164725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>16.291640000000001</v>
+      </c>
+      <c r="S44">
+        <v>20</v>
+      </c>
+      <c r="T44">
+        <v>1929.1890000000001</v>
+      </c>
+      <c r="U44">
+        <v>3152430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>1.961549</v>
+      </c>
+      <c r="S45">
+        <v>40</v>
+      </c>
+      <c r="T45">
+        <v>1939.97</v>
+      </c>
+      <c r="U45">
+        <v>3027977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>2.6864690000000002</v>
+      </c>
+      <c r="S46">
+        <v>80</v>
+      </c>
+      <c r="T46">
+        <v>1952.0029999999999</v>
+      </c>
+      <c r="U46">
+        <v>2797759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>0.80822320000000003</v>
+      </c>
+      <c r="S47">
+        <v>160</v>
+      </c>
+      <c r="T47">
+        <v>1938.9280000000001</v>
+      </c>
+      <c r="U47">
+        <v>2933645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>320</v>
+      </c>
+      <c r="C48">
+        <v>0.45157360000000002</v>
+      </c>
+      <c r="S48">
+        <v>320</v>
+      </c>
+      <c r="T48">
+        <v>1929.5519999999999</v>
+      </c>
+      <c r="U48">
+        <v>3105450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>640</v>
+      </c>
+      <c r="C49">
+        <v>0.23271749999999999</v>
+      </c>
+      <c r="S49">
+        <v>640</v>
+      </c>
+      <c r="T49">
+        <v>1884.595</v>
+      </c>
+      <c r="U49">
+        <v>3079993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1280</v>
+      </c>
+      <c r="C50">
+        <v>0.85055840000000005</v>
+      </c>
+      <c r="S50">
+        <v>1280</v>
+      </c>
+      <c r="T50">
+        <v>1892.32</v>
+      </c>
+      <c r="U50">
+        <v>3293757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2560</v>
+      </c>
+      <c r="C51">
+        <v>0.42310769999999998</v>
+      </c>
+      <c r="S51">
+        <v>2560</v>
+      </c>
+      <c r="T51">
+        <v>1869.1980000000001</v>
+      </c>
+      <c r="U51">
+        <v>3382422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5120</v>
+      </c>
+      <c r="C52">
+        <v>0.97783260000000005</v>
+      </c>
+      <c r="S52">
+        <v>5120</v>
+      </c>
+      <c r="T52">
+        <v>1775.8820000000001</v>
+      </c>
+      <c r="U52">
+        <v>4521143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10240</v>
+      </c>
+      <c r="C53">
+        <v>0.80510429999999999</v>
+      </c>
+      <c r="S53">
+        <v>10240</v>
+      </c>
+      <c r="T53">
+        <v>68.818340000000006</v>
+      </c>
+      <c r="U53">
+        <v>5689575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>20480</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54">
+        <v>20480</v>
+      </c>
+      <c r="T54">
+        <v>3.0492469999999998</v>
+      </c>
+      <c r="U54">
+        <v>7579188</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -8541,182 +11695,564 @@
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="F58" t="e">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>121.79510000000001</v>
+      </c>
+      <c r="F58">
         <f>AVERAGE(C58,C70)</f>
-        <v>#DIV/0!</v>
+        <v>111.8818</v>
       </c>
       <c r="R58" t="s">
         <v>2</v>
       </c>
-      <c r="W58" t="e">
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>1556.075</v>
+      </c>
+      <c r="U58">
+        <v>2714488</v>
+      </c>
+      <c r="W58">
         <f>AVERAGE(T58,T70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X58" t="e">
+        <v>1585.8465000000001</v>
+      </c>
+      <c r="X58">
         <f>AVERAGE(U58,U70)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.7215034999999999</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F59" t="e">
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>13.72466</v>
+      </c>
+      <c r="F59">
         <f t="shared" ref="F59:F69" si="6">AVERAGE(C59,C71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59" t="e">
+        <v>29.057110000000002</v>
+      </c>
+      <c r="S59">
+        <v>20</v>
+      </c>
+      <c r="T59">
+        <v>1347.9490000000001</v>
+      </c>
+      <c r="U59">
+        <v>2731913</v>
+      </c>
+      <c r="W59">
         <f t="shared" ref="W59:W69" si="7">AVERAGE(T59,T71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X59" t="e">
+        <v>1486.4645</v>
+      </c>
+      <c r="X59">
         <f t="shared" ref="X59:X69" si="8">AVERAGE(U59,U71)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.7140580000000001</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F60" t="e">
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>3.3662800000000002</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" t="e">
+        <v>6.8547349999999998</v>
+      </c>
+      <c r="S60">
+        <v>40</v>
+      </c>
+      <c r="T60">
+        <v>1569.12</v>
+      </c>
+      <c r="U60">
+        <v>2845709</v>
+      </c>
+      <c r="W60">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X60" t="e">
+        <v>1580.8905</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7732190000000001</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F61" t="e">
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>2.2163710000000001</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61" t="e">
+        <v>2.4482460000000001</v>
+      </c>
+      <c r="S61">
+        <v>80</v>
+      </c>
+      <c r="T61">
+        <v>1278.7439999999999</v>
+      </c>
+      <c r="U61">
+        <v>2714598</v>
+      </c>
+      <c r="W61">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X61" t="e">
+        <v>1450.299</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.704577</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F62" t="e">
+      <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>1.0770999999999999</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" t="e">
+        <v>2.2996944999999998</v>
+      </c>
+      <c r="S62">
+        <v>160</v>
+      </c>
+      <c r="T62">
+        <v>1517.9290000000001</v>
+      </c>
+      <c r="U62">
+        <v>2682716</v>
+      </c>
+      <c r="W62">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X62" t="e">
+        <v>1563.432</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.6966165000000002</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F63" t="e">
+      <c r="B63">
+        <v>320</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63" t="e">
+        <v>1.804775</v>
+      </c>
+      <c r="S63">
+        <v>320</v>
+      </c>
+      <c r="T63">
+        <v>1594.617</v>
+      </c>
+      <c r="U63">
+        <v>2739559</v>
+      </c>
+      <c r="W63">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X63" t="e">
+        <v>1599.6165000000001</v>
+      </c>
+      <c r="X63">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7320980000000001</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F64" t="e">
+      <c r="B64">
+        <v>640</v>
+      </c>
+      <c r="C64">
+        <v>0.55399259999999995</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W64" t="e">
+        <v>0.83477279999999998</v>
+      </c>
+      <c r="S64">
+        <v>640</v>
+      </c>
+      <c r="T64">
+        <v>1579.549</v>
+      </c>
+      <c r="U64">
+        <v>2761637</v>
+      </c>
+      <c r="W64">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X64" t="e">
+        <v>1581.3975</v>
+      </c>
+      <c r="X64">
         <f>AVERAGE(U64,U76)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.7909329999999999</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F65" t="e">
+      <c r="B65">
+        <v>1280</v>
+      </c>
+      <c r="C65">
+        <v>0.54135140000000004</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W65" t="e">
+        <v>0.53417804999999996</v>
+      </c>
+      <c r="S65">
+        <v>1280</v>
+      </c>
+      <c r="T65">
+        <v>1585.1210000000001</v>
+      </c>
+      <c r="U65">
+        <v>2904071</v>
+      </c>
+      <c r="W65">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X65" t="e">
+        <v>1579.5005000000001</v>
+      </c>
+      <c r="X65">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.869513</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F66" t="e">
+      <c r="B66">
+        <v>2560</v>
+      </c>
+      <c r="C66">
+        <v>6.8437020000000001E-2</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W66" t="e">
+        <v>6.3264525000000002E-2</v>
+      </c>
+      <c r="S66">
+        <v>2560</v>
+      </c>
+      <c r="T66">
+        <v>1567.79</v>
+      </c>
+      <c r="U66">
+        <v>3218358</v>
+      </c>
+      <c r="W66">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X66" t="e">
+        <v>1564.278</v>
+      </c>
+      <c r="X66">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.2208925000000002</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F67" t="e">
+      <c r="B67">
+        <v>5120</v>
+      </c>
+      <c r="C67">
+        <v>3.2759219999999999E-2</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W67" t="e">
+        <v>4.2786834999999995E-2</v>
+      </c>
+      <c r="S67">
+        <v>5120</v>
+      </c>
+      <c r="T67">
+        <v>1377.902</v>
+      </c>
+      <c r="U67">
+        <v>4087110</v>
+      </c>
+      <c r="W67">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X67" t="e">
+        <v>1393.1925000000001</v>
+      </c>
+      <c r="X67">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.0654525000000001</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F68" t="e">
+      <c r="B68">
+        <v>10240</v>
+      </c>
+      <c r="C68">
+        <v>5.3351009999999997E-2</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" t="e">
+        <v>7.2731694999999999E-2</v>
+      </c>
+      <c r="S68">
+        <v>10240</v>
+      </c>
+      <c r="T68">
+        <v>66.526600000000002</v>
+      </c>
+      <c r="U68">
+        <v>5434177</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X68" t="e">
+        <v>66.510764999999992</v>
+      </c>
+      <c r="X68">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.5023355</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F69" t="e">
+      <c r="B69">
+        <v>20480</v>
+      </c>
+      <c r="C69">
+        <v>6.7017080000000007E-2</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W69" t="e">
+        <v>7.4687735000000005E-2</v>
+      </c>
+      <c r="S69">
+        <v>20480</v>
+      </c>
+      <c r="T69">
+        <v>3.0150619999999999</v>
+      </c>
+      <c r="U69">
+        <v>7379946</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X69" t="e">
+        <v>3.0134429999999996</v>
+      </c>
+      <c r="X69">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>7.2993829999999997</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>101.96850000000001</v>
+      </c>
       <c r="R70" t="s">
         <v>2</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>1615.6179999999999</v>
+      </c>
+      <c r="U70">
+        <v>2728519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>44.389560000000003</v>
+      </c>
+      <c r="S71">
+        <v>20</v>
+      </c>
+      <c r="T71">
+        <v>1624.98</v>
+      </c>
+      <c r="U71">
+        <v>2696203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>10.34319</v>
+      </c>
+      <c r="S72">
+        <v>40</v>
+      </c>
+      <c r="T72">
+        <v>1592.6610000000001</v>
+      </c>
+      <c r="U72">
+        <v>2700729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>2.6801210000000002</v>
+      </c>
+      <c r="S73">
+        <v>80</v>
+      </c>
+      <c r="T73">
+        <v>1621.854</v>
+      </c>
+      <c r="U73">
+        <v>2694556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>160</v>
+      </c>
+      <c r="C74">
+        <v>3.5222889999999998</v>
+      </c>
+      <c r="S74">
+        <v>160</v>
+      </c>
+      <c r="T74">
+        <v>1608.9349999999999</v>
+      </c>
+      <c r="U74">
+        <v>2710517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>320</v>
+      </c>
+      <c r="C75">
+        <v>1.804775</v>
+      </c>
+      <c r="S75">
+        <v>320</v>
+      </c>
+      <c r="T75">
+        <v>1604.616</v>
+      </c>
+      <c r="U75">
+        <v>2724637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>640</v>
+      </c>
+      <c r="C76">
+        <v>1.115553</v>
+      </c>
+      <c r="S76">
+        <v>640</v>
+      </c>
+      <c r="T76">
+        <v>1583.2460000000001</v>
+      </c>
+      <c r="U76">
+        <v>2820229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1280</v>
+      </c>
+      <c r="C77">
+        <v>0.52700469999999999</v>
+      </c>
+      <c r="S77">
+        <v>1280</v>
+      </c>
+      <c r="T77">
+        <v>1573.88</v>
+      </c>
+      <c r="U77">
+        <v>2834955</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2560</v>
+      </c>
+      <c r="C78">
+        <v>5.8092030000000003E-2</v>
+      </c>
+      <c r="S78">
+        <v>2560</v>
+      </c>
+      <c r="T78">
+        <v>1560.7660000000001</v>
+      </c>
+      <c r="U78">
+        <v>3223427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>5120</v>
+      </c>
+      <c r="C79">
+        <v>5.2814449999999999E-2</v>
+      </c>
+      <c r="S79">
+        <v>5120</v>
+      </c>
+      <c r="T79">
+        <v>1408.4829999999999</v>
+      </c>
+      <c r="U79">
+        <v>4043795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>10240</v>
+      </c>
+      <c r="C80">
+        <v>9.2112379999999994E-2</v>
+      </c>
+      <c r="S80">
+        <v>10240</v>
+      </c>
+      <c r="T80">
+        <v>66.494929999999997</v>
+      </c>
+      <c r="U80">
+        <v>5570494</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>20480</v>
+      </c>
+      <c r="C81">
+        <v>8.2358390000000004E-2</v>
+      </c>
+      <c r="S81">
+        <v>20480</v>
+      </c>
+      <c r="T81">
+        <v>3.0118239999999998</v>
+      </c>
+      <c r="U81">
+        <v>7218820</v>
       </c>
     </row>
   </sheetData>
@@ -8725,12 +12261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD3C77-BB9D-41C2-98AA-A4623EF53FEF}">
-  <dimension ref="A3:X70"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34421B8B-8A65-4485-B21F-37F079368486}">
+  <dimension ref="A3:X81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,182 +12309,564 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="e">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>12.56287</v>
+      </c>
+      <c r="F4">
         <f>AVERAGE(C4,C16)</f>
-        <v>#DIV/0!</v>
+        <v>30.349760000000003</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
       </c>
-      <c r="W4" t="e">
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1744.7909999999999</v>
+      </c>
+      <c r="U4">
+        <v>2614171</v>
+      </c>
+      <c r="W4">
         <f>AVERAGE(T4,T16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" t="e">
+        <v>1838.0504999999998</v>
+      </c>
+      <c r="X4">
         <f>AVERAGE(U4,U16)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.66961</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F5" t="e">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>14.90391</v>
+      </c>
+      <c r="F5">
         <f t="shared" ref="F5:F15" si="0">AVERAGE(C5,C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" t="e">
+        <v>15.75543</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>1774.5809999999999</v>
+      </c>
+      <c r="U5">
+        <v>2527657</v>
+      </c>
+      <c r="W5">
         <f t="shared" ref="W5:W15" si="1">AVERAGE(T5,T17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" t="e">
+        <v>1866.2514999999999</v>
+      </c>
+      <c r="X5">
         <f t="shared" ref="X5:X15" si="2">AVERAGE(U5,U17)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.60568</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F6" t="e">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>4.3032830000000004</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>22.136001499999999</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>1853.96</v>
+      </c>
+      <c r="U6">
+        <v>2547488</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>1897.8330000000001</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6086360000000002</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F7" t="e">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>3.8157350000000001</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>16.082862499999997</v>
+      </c>
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>1925.8910000000001</v>
+      </c>
+      <c r="U7">
+        <v>2504468</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>1923.4075</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.5993754999999998</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>20.010909999999999</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" t="e">
+        <v>12.7065985</v>
+      </c>
+      <c r="S8">
+        <v>160</v>
+      </c>
+      <c r="T8">
+        <v>1934.623</v>
+      </c>
+      <c r="U8">
+        <v>2568764</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" t="e">
+        <v>1934.0645</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6334960000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F9" t="e">
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9">
+        <v>2.278654</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" t="e">
+        <v>2.8725540000000001</v>
+      </c>
+      <c r="S9">
+        <v>320</v>
+      </c>
+      <c r="T9">
+        <v>1915.2819999999999</v>
+      </c>
+      <c r="U9">
+        <v>2590880</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" t="e">
+        <v>1910.307</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.6555070000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F10" t="e">
+      <c r="B10">
+        <v>640</v>
+      </c>
+      <c r="C10">
+        <v>0.1487976</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" t="e">
+        <v>0.20479069999999999</v>
+      </c>
+      <c r="S10">
+        <v>640</v>
+      </c>
+      <c r="T10">
+        <v>1901.2139999999999</v>
+      </c>
+      <c r="U10">
+        <v>2739512</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" t="e">
+        <v>1890.2314999999999</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7357285</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F11" t="e">
+      <c r="B11">
+        <v>1280</v>
+      </c>
+      <c r="C11">
+        <v>0.4586093</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>0.26417379000000002</v>
+      </c>
+      <c r="S11">
+        <v>1280</v>
+      </c>
+      <c r="T11">
+        <v>1852.807</v>
+      </c>
+      <c r="U11">
+        <v>2794545</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" t="e">
+        <v>1857.2004999999999</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.7947285000000002</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F12" t="e">
+      <c r="B12">
+        <v>2560</v>
+      </c>
+      <c r="C12">
+        <v>5.049331E-2</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" t="e">
+        <v>3.4623849999999998E-2</v>
+      </c>
+      <c r="S12">
+        <v>2560</v>
+      </c>
+      <c r="T12">
+        <v>1688.2840000000001</v>
+      </c>
+      <c r="U12">
+        <v>3189376</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" t="e">
+        <v>1762.8515000000002</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.1555849999999999</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F13" t="e">
+      <c r="B13">
+        <v>5120</v>
+      </c>
+      <c r="C13">
+        <v>5.8101779999999999E-2</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" t="e">
+        <v>3.8421264999999996E-2</v>
+      </c>
+      <c r="S13">
+        <v>5120</v>
+      </c>
+      <c r="T13">
+        <v>1596.6120000000001</v>
+      </c>
+      <c r="U13">
+        <v>4039865</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" t="e">
+        <v>1669.133</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.1384550000000004</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F14" t="e">
+      <c r="B14">
+        <v>10240</v>
+      </c>
+      <c r="C14">
+        <v>1.6900419999999999E-2</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" t="e">
+        <v>1.819778E-2</v>
+      </c>
+      <c r="S14">
+        <v>10240</v>
+      </c>
+      <c r="T14">
+        <v>78.994870000000006</v>
+      </c>
+      <c r="U14">
+        <v>5635373</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" t="e">
+        <v>78.717505000000003</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.665699</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F15" t="e">
+      <c r="B15">
+        <v>20480</v>
+      </c>
+      <c r="C15">
+        <v>1.650443E-2</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e">
+        <v>1.6265669999999999E-2</v>
+      </c>
+      <c r="S15">
+        <v>20480</v>
+      </c>
+      <c r="T15">
+        <v>3.0165769999999998</v>
+      </c>
+      <c r="U15">
+        <v>7249986</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" t="e">
+        <v>3.0146119999999996</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>7.2697849999999997</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>48.136650000000003</v>
+      </c>
       <c r="R16" t="s">
         <v>2</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>1931.31</v>
+      </c>
+      <c r="U16">
+        <v>2725049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>16.606950000000001</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17">
+        <v>1957.922</v>
+      </c>
+      <c r="U17">
+        <v>2683703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>39.968719999999998</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>1941.7059999999999</v>
+      </c>
+      <c r="U18">
+        <v>2669784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>28.349989999999998</v>
+      </c>
+      <c r="S19">
+        <v>80</v>
+      </c>
+      <c r="T19">
+        <v>1920.924</v>
+      </c>
+      <c r="U19">
+        <v>2694283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>5.4022870000000003</v>
+      </c>
+      <c r="S20">
+        <v>160</v>
+      </c>
+      <c r="T20">
+        <v>1933.5060000000001</v>
+      </c>
+      <c r="U20">
+        <v>2698228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>320</v>
+      </c>
+      <c r="C21">
+        <v>3.4664540000000001</v>
+      </c>
+      <c r="S21">
+        <v>320</v>
+      </c>
+      <c r="T21">
+        <v>1905.3320000000001</v>
+      </c>
+      <c r="U21">
+        <v>2720134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>640</v>
+      </c>
+      <c r="C22">
+        <v>0.26078380000000001</v>
+      </c>
+      <c r="S22">
+        <v>640</v>
+      </c>
+      <c r="T22">
+        <v>1879.249</v>
+      </c>
+      <c r="U22">
+        <v>2731945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1280</v>
+      </c>
+      <c r="C23">
+        <v>6.973828E-2</v>
+      </c>
+      <c r="S23">
+        <v>1280</v>
+      </c>
+      <c r="T23">
+        <v>1861.5940000000001</v>
+      </c>
+      <c r="U23">
+        <v>2794912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2560</v>
+      </c>
+      <c r="C24">
+        <v>1.8754389999999999E-2</v>
+      </c>
+      <c r="S24">
+        <v>2560</v>
+      </c>
+      <c r="T24">
+        <v>1837.4190000000001</v>
+      </c>
+      <c r="U24">
+        <v>3121794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>5120</v>
+      </c>
+      <c r="C25">
+        <v>1.874075E-2</v>
+      </c>
+      <c r="S25">
+        <v>5120</v>
+      </c>
+      <c r="T25">
+        <v>1741.654</v>
+      </c>
+      <c r="U25">
+        <v>4237045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10240</v>
+      </c>
+      <c r="C26">
+        <v>1.9495140000000001E-2</v>
+      </c>
+      <c r="S26">
+        <v>10240</v>
+      </c>
+      <c r="T26">
+        <v>78.44014</v>
+      </c>
+      <c r="U26">
+        <v>5696025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20480</v>
+      </c>
+      <c r="C27">
+        <v>1.6026909999999998E-2</v>
+      </c>
+      <c r="S27">
+        <v>20480</v>
+      </c>
+      <c r="T27">
+        <v>3.0126469999999999</v>
+      </c>
+      <c r="U27">
+        <v>7289584</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -8981,182 +12899,564 @@
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" t="e">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4.5153210000000001</v>
+      </c>
+      <c r="F31">
         <f>AVERAGE(C31,C43)</f>
-        <v>#DIV/0!</v>
+        <v>26.539565499999998</v>
       </c>
       <c r="R31" t="s">
         <v>2</v>
       </c>
-      <c r="W31" t="e">
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>1900.222</v>
+      </c>
+      <c r="U31">
+        <v>2946847</v>
+      </c>
+      <c r="W31">
         <f>AVERAGE(T31,T43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" t="e">
+        <v>1922.4585</v>
+      </c>
+      <c r="X31">
         <f>AVERAGE(U31,U43)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>3.1176189999999999</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F32" t="e">
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>83.456220000000002</v>
+      </c>
+      <c r="F32">
         <f t="shared" ref="F32:F42" si="3">AVERAGE(C32,C44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" t="e">
+        <v>45.8600165</v>
+      </c>
+      <c r="S32">
+        <v>20</v>
+      </c>
+      <c r="T32">
+        <v>1919.3030000000001</v>
+      </c>
+      <c r="U32">
+        <v>3277517</v>
+      </c>
+      <c r="W32">
         <f t="shared" ref="W32:W42" si="4">AVERAGE(T32,T44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" t="e">
+        <v>1936.1265000000001</v>
+      </c>
+      <c r="X32">
         <f t="shared" ref="X32:X42" si="5">AVERAGE(U32,U44)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>3.1846904999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F33" t="e">
+      <c r="B33">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>15.024229999999999</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" t="e">
+        <v>42.482350000000004</v>
+      </c>
+      <c r="S33">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>1892.98</v>
+      </c>
+      <c r="U33">
+        <v>2947199</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" t="e">
+        <v>1920.3589999999999</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.8798240000000002</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F34" t="e">
+      <c r="B34">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>12.56625</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" t="e">
+        <v>14.516935</v>
+      </c>
+      <c r="S34">
+        <v>80</v>
+      </c>
+      <c r="T34">
+        <v>1928.174</v>
+      </c>
+      <c r="U34">
+        <v>2846731</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" t="e">
+        <v>1940.24</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>2.8604595000000002</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" t="e">
+      <c r="B35">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>3.6672940000000001</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" t="e">
+        <v>2.7201385</v>
+      </c>
+      <c r="S35">
+        <v>160</v>
+      </c>
+      <c r="T35">
+        <v>1891.5060000000001</v>
+      </c>
+      <c r="U35">
+        <v>2982259</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" t="e">
+        <v>1927.7445</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.0079470000000001</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" t="e">
+      <c r="B36">
+        <v>320</v>
+      </c>
+      <c r="C36">
+        <v>0.49600060000000001</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" t="e">
+        <v>0.77281580000000005</v>
+      </c>
+      <c r="S36">
+        <v>320</v>
+      </c>
+      <c r="T36">
+        <v>1870.6759999999999</v>
+      </c>
+      <c r="U36">
+        <v>3198694</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" t="e">
+        <v>1909.2914999999998</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.2055514999999999</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" t="e">
+      <c r="B37">
+        <v>640</v>
+      </c>
+      <c r="C37">
+        <v>0.36454639999999999</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" t="e">
+        <v>0.40499799999999997</v>
+      </c>
+      <c r="S37">
+        <v>640</v>
+      </c>
+      <c r="T37">
+        <v>1850.492</v>
+      </c>
+      <c r="U37">
+        <v>3248618</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" t="e">
+        <v>1811.5149999999999</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.2070924999999999</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" t="e">
+      <c r="B38">
+        <v>1280</v>
+      </c>
+      <c r="C38">
+        <v>0.55846629999999997</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" t="e">
+        <v>1.67274265</v>
+      </c>
+      <c r="S38">
+        <v>1280</v>
+      </c>
+      <c r="T38">
+        <v>1577.326</v>
+      </c>
+      <c r="U38">
+        <v>3074361</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" t="e">
+        <v>1693.3340000000001</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.1305784999999999</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F39" t="e">
+      <c r="B39">
+        <v>2560</v>
+      </c>
+      <c r="C39">
+        <v>0.80868770000000001</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" t="e">
+        <v>0.76874175</v>
+      </c>
+      <c r="S39">
+        <v>2560</v>
+      </c>
+      <c r="T39">
+        <v>1757.6690000000001</v>
+      </c>
+      <c r="U39">
+        <v>3389140</v>
+      </c>
+      <c r="W39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" t="e">
+        <v>1814.2370000000001</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.3591250000000001</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F40" t="e">
+      <c r="B40">
+        <v>5120</v>
+      </c>
+      <c r="C40">
+        <v>0.73922540000000003</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" t="e">
+        <v>0.54779405000000003</v>
+      </c>
+      <c r="S40">
+        <v>5120</v>
+      </c>
+      <c r="T40">
+        <v>1705.752</v>
+      </c>
+      <c r="U40">
+        <v>4358270</v>
+      </c>
+      <c r="W40">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X40" t="e">
+        <v>1721.9814999999999</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.3687315</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F41" t="e">
+      <c r="B41">
+        <v>10240</v>
+      </c>
+      <c r="C41">
+        <v>0.75007020000000002</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" t="e">
+        <v>0.86808805</v>
+      </c>
+      <c r="S41">
+        <v>10240</v>
+      </c>
+      <c r="T41">
+        <v>75.756969999999995</v>
+      </c>
+      <c r="U41">
+        <v>5873495</v>
+      </c>
+      <c r="W41">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" t="e">
+        <v>72.410349999999994</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>5.9158825000000004</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F42" t="e">
+      <c r="B42">
+        <v>20480</v>
+      </c>
+      <c r="C42">
+        <v>0.7146593</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W42" t="e">
+        <v>0.67806739999999999</v>
+      </c>
+      <c r="S42">
+        <v>20480</v>
+      </c>
+      <c r="T42">
+        <v>3.0184299999999999</v>
+      </c>
+      <c r="U42">
+        <v>7368139</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X42" t="e">
+        <v>3.0106744999999999</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7.4928305000000002</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>48.563809999999997</v>
+      </c>
       <c r="R43" t="s">
         <v>2</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>1944.6949999999999</v>
+      </c>
+      <c r="U43">
+        <v>3288391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>8.2638130000000007</v>
+      </c>
+      <c r="S44">
+        <v>20</v>
+      </c>
+      <c r="T44">
+        <v>1952.95</v>
+      </c>
+      <c r="U44">
+        <v>3091864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>69.940470000000005</v>
+      </c>
+      <c r="S45">
+        <v>40</v>
+      </c>
+      <c r="T45">
+        <v>1947.7380000000001</v>
+      </c>
+      <c r="U45">
+        <v>2812449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <v>16.46762</v>
+      </c>
+      <c r="S46">
+        <v>80</v>
+      </c>
+      <c r="T46">
+        <v>1952.306</v>
+      </c>
+      <c r="U46">
+        <v>2874188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>1.772983</v>
+      </c>
+      <c r="S47">
+        <v>160</v>
+      </c>
+      <c r="T47">
+        <v>1963.9829999999999</v>
+      </c>
+      <c r="U47">
+        <v>3033635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>320</v>
+      </c>
+      <c r="C48">
+        <v>1.049631</v>
+      </c>
+      <c r="S48">
+        <v>320</v>
+      </c>
+      <c r="T48">
+        <v>1947.9069999999999</v>
+      </c>
+      <c r="U48">
+        <v>3212409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>640</v>
+      </c>
+      <c r="C49">
+        <v>0.4454496</v>
+      </c>
+      <c r="S49">
+        <v>640</v>
+      </c>
+      <c r="T49">
+        <v>1772.538</v>
+      </c>
+      <c r="U49">
+        <v>3165567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1280</v>
+      </c>
+      <c r="C50">
+        <v>2.7870189999999999</v>
+      </c>
+      <c r="S50">
+        <v>1280</v>
+      </c>
+      <c r="T50">
+        <v>1809.3420000000001</v>
+      </c>
+      <c r="U50">
+        <v>3186796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2560</v>
+      </c>
+      <c r="C51">
+        <v>0.72879579999999999</v>
+      </c>
+      <c r="S51">
+        <v>2560</v>
+      </c>
+      <c r="T51">
+        <v>1870.8050000000001</v>
+      </c>
+      <c r="U51">
+        <v>3329110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5120</v>
+      </c>
+      <c r="C52">
+        <v>0.35636269999999998</v>
+      </c>
+      <c r="S52">
+        <v>5120</v>
+      </c>
+      <c r="T52">
+        <v>1738.211</v>
+      </c>
+      <c r="U52">
+        <v>4379193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10240</v>
+      </c>
+      <c r="C53">
+        <v>0.98610589999999998</v>
+      </c>
+      <c r="S53">
+        <v>10240</v>
+      </c>
+      <c r="T53">
+        <v>69.063730000000007</v>
+      </c>
+      <c r="U53">
+        <v>5958270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>20480</v>
+      </c>
+      <c r="C54">
+        <v>0.64147549999999998</v>
+      </c>
+      <c r="S54">
+        <v>20480</v>
+      </c>
+      <c r="T54">
+        <v>3.0029189999999999</v>
+      </c>
+      <c r="U54">
+        <v>7617522</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -9189,830 +13489,564 @@
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="F58" t="e">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>459.83409999999998</v>
+      </c>
+      <c r="F58">
         <f>AVERAGE(C58,C70)</f>
-        <v>#DIV/0!</v>
+        <v>647.5625</v>
       </c>
       <c r="R58" t="s">
         <v>2</v>
       </c>
-      <c r="W58" t="e">
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>1413.8910000000001</v>
+      </c>
+      <c r="U58">
+        <v>2815948</v>
+      </c>
+      <c r="W58">
         <f>AVERAGE(T58,T70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X58" t="e">
+        <v>1537.7939999999999</v>
+      </c>
+      <c r="X58">
         <f>AVERAGE(U58,U70)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.785682</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F59" t="e">
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>80.933520000000001</v>
+      </c>
+      <c r="F59">
         <f t="shared" ref="F59:F69" si="6">AVERAGE(C59,C71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59" t="e">
+        <v>102.55266</v>
+      </c>
+      <c r="S59">
+        <v>20</v>
+      </c>
+      <c r="T59">
+        <v>1430.385</v>
+      </c>
+      <c r="U59">
+        <v>2713180</v>
+      </c>
+      <c r="W59">
         <f t="shared" ref="W59:W69" si="7">AVERAGE(T59,T71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X59" t="e">
+        <v>1548.4879999999998</v>
+      </c>
+      <c r="X59">
         <f t="shared" ref="X59:X69" si="8">AVERAGE(U59,U71)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.7037610000000001</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F60" t="e">
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>22.430520000000001</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" t="e">
+        <v>57.510840000000002</v>
+      </c>
+      <c r="S60">
+        <v>40</v>
+      </c>
+      <c r="T60">
+        <v>1439.3019999999999</v>
+      </c>
+      <c r="U60">
+        <v>2721755</v>
+      </c>
+      <c r="W60">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X60" t="e">
+        <v>1551.7375</v>
+      </c>
+      <c r="X60">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7102949999999999</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F61" t="e">
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>56.828969999999998</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61" t="e">
+        <v>29.450646499999998</v>
+      </c>
+      <c r="S61">
+        <v>80</v>
+      </c>
+      <c r="T61">
+        <v>1410.6559999999999</v>
+      </c>
+      <c r="U61">
+        <v>2711525</v>
+      </c>
+      <c r="W61">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X61" t="e">
+        <v>1532.875</v>
+      </c>
+      <c r="X61">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7125360000000001</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F62" t="e">
+      <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>17.787790000000001</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" t="e">
+        <v>9.1005901500000004</v>
+      </c>
+      <c r="S62">
+        <v>160</v>
+      </c>
+      <c r="T62">
+        <v>1412.5029999999999</v>
+      </c>
+      <c r="U62">
+        <v>2722795</v>
+      </c>
+      <c r="W62">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X62" t="e">
+        <v>1540.5045</v>
+      </c>
+      <c r="X62">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7157819999999999</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F63" t="e">
+      <c r="B63">
+        <v>320</v>
+      </c>
+      <c r="C63">
+        <v>1.08982</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63" t="e">
+        <v>1.3239775</v>
+      </c>
+      <c r="S63">
+        <v>320</v>
+      </c>
+      <c r="T63">
+        <v>1406.0419999999999</v>
+      </c>
+      <c r="U63">
+        <v>2767052</v>
+      </c>
+      <c r="W63">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X63" t="e">
+        <v>1527.1125</v>
+      </c>
+      <c r="X63">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.7513464999999999</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F64" t="e">
+      <c r="B64">
+        <v>640</v>
+      </c>
+      <c r="C64">
+        <v>2.59354</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W64" t="e">
+        <v>2.3647564999999999</v>
+      </c>
+      <c r="S64">
+        <v>640</v>
+      </c>
+      <c r="T64">
+        <v>1372.5840000000001</v>
+      </c>
+      <c r="U64">
+        <v>2772304</v>
+      </c>
+      <c r="W64">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X64" t="e">
+        <v>1510.3205</v>
+      </c>
+      <c r="X64">
         <f>AVERAGE(U64,U76)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>2.7800064999999998</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F65" t="e">
+      <c r="B65">
+        <v>1280</v>
+      </c>
+      <c r="C65">
+        <v>1.2344329999999999</v>
+      </c>
+      <c r="F65">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W65" t="e">
+        <v>1.2143695000000001</v>
+      </c>
+      <c r="S65">
+        <v>1280</v>
+      </c>
+      <c r="T65">
+        <v>1406.941</v>
+      </c>
+      <c r="U65">
+        <v>2884970</v>
+      </c>
+      <c r="W65">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X65" t="e">
+        <v>1512.1475</v>
+      </c>
+      <c r="X65">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.8460160000000001</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F66" t="e">
+      <c r="B66">
+        <v>2560</v>
+      </c>
+      <c r="C66">
+        <v>0.2569977</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W66" t="e">
+        <v>0.19600624999999999</v>
+      </c>
+      <c r="S66">
+        <v>2560</v>
+      </c>
+      <c r="T66">
+        <v>1359.2539999999999</v>
+      </c>
+      <c r="U66">
+        <v>3236294</v>
+      </c>
+      <c r="W66">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X66" t="e">
+        <v>1490.0495000000001</v>
+      </c>
+      <c r="X66">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.2014065</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F67" t="e">
+      <c r="B67">
+        <v>5120</v>
+      </c>
+      <c r="C67">
+        <v>0.61843990000000004</v>
+      </c>
+      <c r="F67">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W67" t="e">
+        <v>0.80209419999999998</v>
+      </c>
+      <c r="S67">
+        <v>5120</v>
+      </c>
+      <c r="T67">
+        <v>1213.356</v>
+      </c>
+      <c r="U67">
+        <v>4075000</v>
+      </c>
+      <c r="W67">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X67" t="e">
+        <v>1351.0149999999999</v>
+      </c>
+      <c r="X67">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4.1719485000000001</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F68" t="e">
+      <c r="B68">
+        <v>10240</v>
+      </c>
+      <c r="C68">
+        <v>0.40189649999999999</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" t="e">
+        <v>0.35709859999999999</v>
+      </c>
+      <c r="S68">
+        <v>10240</v>
+      </c>
+      <c r="T68">
+        <v>69.22824</v>
+      </c>
+      <c r="U68">
+        <v>5771153</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X68" t="e">
+        <v>68.271884999999997</v>
+      </c>
+      <c r="X68">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.7907479999999998</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F69" t="e">
+      <c r="B69">
+        <v>20480</v>
+      </c>
+      <c r="C69">
+        <v>0.48797430000000003</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W69" t="e">
+        <v>0.47302549999999999</v>
+      </c>
+      <c r="S69">
+        <v>20480</v>
+      </c>
+      <c r="T69">
+        <v>3.0219939999999998</v>
+      </c>
+      <c r="U69">
+        <v>7418818</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X69" t="e">
+        <v>3.0181079999999998</v>
+      </c>
+      <c r="X69">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>7.4227619999999996</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>835.29089999999997</v>
+      </c>
       <c r="R70" t="s">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34421B8B-8A65-4485-B21F-37F079368486}">
-  <dimension ref="A3:X70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="e">
-        <f>AVERAGE(C4,C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" t="e">
-        <f>AVERAGE(T4,T16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" t="e">
-        <f>AVERAGE(U4,U16)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F5" t="e">
-        <f t="shared" ref="F5:F15" si="0">AVERAGE(C5,C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" t="e">
-        <f t="shared" ref="W5:W15" si="1">AVERAGE(T5,T17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" t="e">
-        <f t="shared" ref="X5:X15" si="2">AVERAGE(U5,U17)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30" t="s">
-        <v>4</v>
-      </c>
-      <c r="X30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="e">
-        <f>AVERAGE(C31,C43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" t="e">
-        <f>AVERAGE(T31,T43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X31" t="e">
-        <f>AVERAGE(U31,U43)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F32" t="e">
-        <f t="shared" ref="F32:F42" si="3">AVERAGE(C32,C44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W32" t="e">
-        <f t="shared" ref="W32:W42" si="4">AVERAGE(T32,T44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X32" t="e">
-        <f t="shared" ref="X32:X42" si="5">AVERAGE(U32,U44)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F33" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W35" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X35" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W37" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X37" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W38" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X38" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W39" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X39" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F40" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X40" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F41" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X42" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1</v>
-      </c>
-      <c r="T57" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" t="e">
-        <f>AVERAGE(C58,C70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" t="s">
-        <v>2</v>
-      </c>
-      <c r="W58" t="e">
-        <f>AVERAGE(T58,T70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X58" t="e">
-        <f>AVERAGE(U58,U70)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F59" t="e">
-        <f t="shared" ref="F59:F69" si="6">AVERAGE(C59,C71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W59" t="e">
-        <f t="shared" ref="W59:W69" si="7">AVERAGE(T59,T71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X59" t="e">
-        <f t="shared" ref="X59:X69" si="8">AVERAGE(U59,U71)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F60" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X60" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F61" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W61" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X61" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F62" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W62" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X62" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F63" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W63" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X63" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F64" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W64" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X64" t="e">
-        <f>AVERAGE(U64,U76)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F65" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W65" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X65" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F66" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W66" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X66" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F67" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W67" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X67" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F68" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W68" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X68" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F69" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W69" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X69" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="R70" t="s">
-        <v>2</v>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>1661.6969999999999</v>
+      </c>
+      <c r="U70">
+        <v>2755416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>124.1718</v>
+      </c>
+      <c r="S71">
+        <v>20</v>
+      </c>
+      <c r="T71">
+        <v>1666.5909999999999</v>
+      </c>
+      <c r="U71">
+        <v>2694342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>92.591160000000002</v>
+      </c>
+      <c r="S72">
+        <v>40</v>
+      </c>
+      <c r="T72">
+        <v>1664.173</v>
+      </c>
+      <c r="U72">
+        <v>2698835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>2.0723229999999999</v>
+      </c>
+      <c r="S73">
+        <v>80</v>
+      </c>
+      <c r="T73">
+        <v>1655.0940000000001</v>
+      </c>
+      <c r="U73">
+        <v>2713547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>160</v>
+      </c>
+      <c r="C74">
+        <v>0.41339029999999999</v>
+      </c>
+      <c r="S74">
+        <v>160</v>
+      </c>
+      <c r="T74">
+        <v>1668.5060000000001</v>
+      </c>
+      <c r="U74">
+        <v>2708769</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>320</v>
+      </c>
+      <c r="C75">
+        <v>1.558135</v>
+      </c>
+      <c r="S75">
+        <v>320</v>
+      </c>
+      <c r="T75">
+        <v>1648.183</v>
+      </c>
+      <c r="U75">
+        <v>2735641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>640</v>
+      </c>
+      <c r="C76">
+        <v>2.1359729999999999</v>
+      </c>
+      <c r="S76">
+        <v>640</v>
+      </c>
+      <c r="T76">
+        <v>1648.057</v>
+      </c>
+      <c r="U76">
+        <v>2787709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1280</v>
+      </c>
+      <c r="C77">
+        <v>1.1943060000000001</v>
+      </c>
+      <c r="S77">
+        <v>1280</v>
+      </c>
+      <c r="T77">
+        <v>1617.354</v>
+      </c>
+      <c r="U77">
+        <v>2807062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2560</v>
+      </c>
+      <c r="C78">
+        <v>0.13501479999999999</v>
+      </c>
+      <c r="S78">
+        <v>2560</v>
+      </c>
+      <c r="T78">
+        <v>1620.845</v>
+      </c>
+      <c r="U78">
+        <v>3166519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>5120</v>
+      </c>
+      <c r="C79">
+        <v>0.98574850000000003</v>
+      </c>
+      <c r="S79">
+        <v>5120</v>
+      </c>
+      <c r="T79">
+        <v>1488.674</v>
+      </c>
+      <c r="U79">
+        <v>4268897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>10240</v>
+      </c>
+      <c r="C80">
+        <v>0.31230069999999999</v>
+      </c>
+      <c r="S80">
+        <v>10240</v>
+      </c>
+      <c r="T80">
+        <v>67.315529999999995</v>
+      </c>
+      <c r="U80">
+        <v>5810343</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>20480</v>
+      </c>
+      <c r="C81">
+        <v>0.4580767</v>
+      </c>
+      <c r="S81">
+        <v>20480</v>
+      </c>
+      <c r="T81">
+        <v>3.0142220000000002</v>
+      </c>
+      <c r="U81">
+        <v>7426706</v>
       </c>
     </row>
   </sheetData>
